--- a/data/VidaEnTacos.xlsx
+++ b/data/VidaEnTacos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebaalexander/Dropbox/Mac/Downloads/SnowFlake/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9B41CF-253C-5742-8C9A-A660C3B1D446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F5414-C017-0840-BDFD-F83650B345B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="4280" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{5B0FFF4F-40E3-094A-8502-1B0F31A91601}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="FoodItems" sheetId="1" r:id="rId1"/>
     <sheet name="Monthly Sales 2024" sheetId="2" r:id="rId2"/>
     <sheet name="Monthly Sales 2023" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Employees" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1838,7 +1838,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/VidaEnTacos.xlsx
+++ b/data/VidaEnTacos.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calebaalexander/Dropbox/Mac/Downloads/SnowFlake/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F5414-C017-0840-BDFD-F83650B345B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98BBF16-AC6F-9A4E-B669-1C1B4E302781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="4280" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{5B0FFF4F-40E3-094A-8502-1B0F31A91601}"/>
+    <workbookView xWindow="11880" yWindow="1760" windowWidth="22700" windowHeight="19680" activeTab="4" xr2:uid="{5B0FFF4F-40E3-094A-8502-1B0F31A91601}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodItems" sheetId="1" r:id="rId1"/>
     <sheet name="Monthly Sales 2024" sheetId="2" r:id="rId2"/>
-    <sheet name="Monthly Sales 2023" sheetId="3" r:id="rId3"/>
-    <sheet name="Employees" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Monthly Sales 2023" sheetId="3" r:id="rId4"/>
+    <sheet name="Employees" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="151">
   <si>
     <t>Chips and Guacamole</t>
   </si>
@@ -422,13 +423,82 @@
   </si>
   <si>
     <t>Role</t>
+  </si>
+  <si>
+    <t>WeeklyHours</t>
+  </si>
+  <si>
+    <t>Full/Part Time</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>ItemCode</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>Chips and Salsa Trio</t>
+  </si>
+  <si>
+    <t>Elote</t>
+  </si>
+  <si>
+    <t>Queso Fundido</t>
+  </si>
+  <si>
+    <t>Taquitos</t>
+  </si>
+  <si>
+    <t>Al Pastor</t>
+  </si>
+  <si>
+    <t>Carne Asada</t>
+  </si>
+  <si>
+    <t>Pollo Tinga</t>
+  </si>
+  <si>
+    <t>Vegetarian Tacos</t>
+  </si>
+  <si>
+    <t>Beef Barbacoa</t>
+  </si>
+  <si>
+    <t>Carnitas</t>
+  </si>
+  <si>
+    <t>Chile Rellenos</t>
+  </si>
+  <si>
+    <t>Black Beans</t>
+  </si>
+  <si>
+    <t>Nopalitos Salad</t>
+  </si>
+  <si>
+    <t>Churros</t>
+  </si>
+  <si>
+    <t>Tres Leches</t>
+  </si>
+  <si>
+    <t>Sopapillas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -457,13 +527,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -478,11 +575,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,7 +909,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -825,7 +934,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1324,253 +1433,1710 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A207BCD4-C2B9-DC48-9BC1-D84E6218CF77}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>32500</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>34000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>37500</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>42000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>52000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>56000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>53000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>49000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>45000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>41000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>39000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>36500</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3">
-        <f>B3/30</f>
+      <c r="C4" s="3">
+        <f>C3/30</f>
         <v>1083.3333333333333</v>
       </c>
-      <c r="C4" s="3">
-        <f t="shared" ref="C4:M4" si="0">C3/30</f>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:N4" si="0">D3/30</f>
         <v>1133.3333333333333</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
         <v>1733.3333333333333</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <f t="shared" si="0"/>
         <v>1866.6666666666667</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>1766.6666666666667</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <f t="shared" si="0"/>
         <v>1633.3333333333333</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <f t="shared" si="0"/>
         <v>1366.6666666666667</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <f t="shared" si="0"/>
         <v>1216.6666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>3000</v>
       </c>
-      <c r="C5" s="3">
-        <f>C3/10.8</f>
+      <c r="D5" s="3">
+        <f>D3/10.8</f>
         <v>3148.1481481481478</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" ref="D5:M5" si="1">D3/10.8</f>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:N5" si="1">E3/10.8</f>
         <v>3472.2222222222222</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <f t="shared" si="1"/>
         <v>3888.8888888888887</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <f t="shared" si="1"/>
         <v>4814.8148148148148</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>5185.1851851851852</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <f t="shared" si="1"/>
         <v>4907.4074074074069</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <f t="shared" si="1"/>
         <v>4537.0370370370365</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <f t="shared" si="1"/>
         <v>4166.6666666666661</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <f t="shared" si="1"/>
         <v>3796.2962962962961</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <f t="shared" si="1"/>
         <v>3611.1111111111109</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <f t="shared" si="1"/>
         <v>3379.6296296296296</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="3">
-        <f>B5/30</f>
-        <v>100</v>
-      </c>
       <c r="C6" s="3">
         <f>C5/30</f>
+        <v>100</v>
+      </c>
+      <c r="D6" s="3">
+        <f>D5/30</f>
         <v>104.93827160493827</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:M6" si="2">D5/30</f>
+      <c r="E6" s="3">
+        <f t="shared" ref="E6:N6" si="2">E5/30</f>
         <v>115.74074074074073</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <f t="shared" si="2"/>
         <v>129.62962962962962</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <f t="shared" si="2"/>
         <v>160.49382716049382</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <f t="shared" si="2"/>
         <v>172.83950617283952</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <f t="shared" si="2"/>
         <v>163.58024691358023</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <f t="shared" si="2"/>
         <v>151.23456790123456</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <f t="shared" si="2"/>
         <v>138.88888888888886</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <f t="shared" si="2"/>
         <v>126.5432098765432</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <f t="shared" si="2"/>
         <v>120.37037037037037</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <f t="shared" si="2"/>
         <v>112.65432098765432</v>
       </c>
+    </row>
+    <row r="8" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>240</v>
+      </c>
+      <c r="D9">
+        <v>252</v>
+      </c>
+      <c r="E9">
+        <v>278</v>
+      </c>
+      <c r="F9">
+        <v>311</v>
+      </c>
+      <c r="G9">
+        <v>482</v>
+      </c>
+      <c r="H9">
+        <v>519</v>
+      </c>
+      <c r="I9">
+        <v>491</v>
+      </c>
+      <c r="J9">
+        <v>454</v>
+      </c>
+      <c r="K9">
+        <v>333</v>
+      </c>
+      <c r="L9">
+        <v>304</v>
+      </c>
+      <c r="M9">
+        <v>289</v>
+      </c>
+      <c r="N9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10">
+        <v>210</v>
+      </c>
+      <c r="D10">
+        <v>220</v>
+      </c>
+      <c r="E10">
+        <v>243</v>
+      </c>
+      <c r="F10">
+        <v>272</v>
+      </c>
+      <c r="G10">
+        <v>422</v>
+      </c>
+      <c r="H10">
+        <v>454</v>
+      </c>
+      <c r="I10">
+        <v>429</v>
+      </c>
+      <c r="J10">
+        <v>397</v>
+      </c>
+      <c r="K10">
+        <v>292</v>
+      </c>
+      <c r="L10">
+        <v>266</v>
+      </c>
+      <c r="M10">
+        <v>253</v>
+      </c>
+      <c r="N10">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11">
+        <v>120</v>
+      </c>
+      <c r="D11">
+        <v>126</v>
+      </c>
+      <c r="E11">
+        <v>139</v>
+      </c>
+      <c r="F11">
+        <v>156</v>
+      </c>
+      <c r="G11">
+        <v>289</v>
+      </c>
+      <c r="H11">
+        <v>311</v>
+      </c>
+      <c r="I11">
+        <v>294</v>
+      </c>
+      <c r="J11">
+        <v>272</v>
+      </c>
+      <c r="K11">
+        <v>167</v>
+      </c>
+      <c r="L11">
+        <v>152</v>
+      </c>
+      <c r="M11">
+        <v>144</v>
+      </c>
+      <c r="N11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12">
+        <v>117</v>
+      </c>
+      <c r="D12">
+        <v>123</v>
+      </c>
+      <c r="E12">
+        <v>104</v>
+      </c>
+      <c r="F12">
+        <v>117</v>
+      </c>
+      <c r="G12">
+        <v>144</v>
+      </c>
+      <c r="H12">
+        <v>156</v>
+      </c>
+      <c r="I12">
+        <v>147</v>
+      </c>
+      <c r="J12">
+        <v>136</v>
+      </c>
+      <c r="K12">
+        <v>125</v>
+      </c>
+      <c r="L12">
+        <v>114</v>
+      </c>
+      <c r="M12">
+        <v>141</v>
+      </c>
+      <c r="N12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>94</v>
+      </c>
+      <c r="E13">
+        <v>104</v>
+      </c>
+      <c r="F13">
+        <v>117</v>
+      </c>
+      <c r="G13">
+        <v>144</v>
+      </c>
+      <c r="H13">
+        <v>156</v>
+      </c>
+      <c r="I13">
+        <v>147</v>
+      </c>
+      <c r="J13">
+        <v>136</v>
+      </c>
+      <c r="K13">
+        <v>125</v>
+      </c>
+      <c r="L13">
+        <v>114</v>
+      </c>
+      <c r="M13">
+        <v>108</v>
+      </c>
+      <c r="N13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14">
+        <v>210</v>
+      </c>
+      <c r="D14">
+        <v>220</v>
+      </c>
+      <c r="E14">
+        <v>243</v>
+      </c>
+      <c r="F14">
+        <v>272</v>
+      </c>
+      <c r="G14">
+        <v>337</v>
+      </c>
+      <c r="H14">
+        <v>363</v>
+      </c>
+      <c r="I14">
+        <v>343</v>
+      </c>
+      <c r="J14">
+        <v>318</v>
+      </c>
+      <c r="K14">
+        <v>292</v>
+      </c>
+      <c r="L14">
+        <v>266</v>
+      </c>
+      <c r="M14">
+        <v>253</v>
+      </c>
+      <c r="N14">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15">
+        <v>210</v>
+      </c>
+      <c r="D15">
+        <v>220</v>
+      </c>
+      <c r="E15">
+        <v>243</v>
+      </c>
+      <c r="F15">
+        <v>272</v>
+      </c>
+      <c r="G15">
+        <v>371</v>
+      </c>
+      <c r="H15">
+        <v>399</v>
+      </c>
+      <c r="I15">
+        <v>377</v>
+      </c>
+      <c r="J15">
+        <v>349</v>
+      </c>
+      <c r="K15">
+        <v>292</v>
+      </c>
+      <c r="L15">
+        <v>266</v>
+      </c>
+      <c r="M15">
+        <v>253</v>
+      </c>
+      <c r="N15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16">
+        <v>180</v>
+      </c>
+      <c r="D16">
+        <v>189</v>
+      </c>
+      <c r="E16">
+        <v>208</v>
+      </c>
+      <c r="F16">
+        <v>233</v>
+      </c>
+      <c r="G16">
+        <v>289</v>
+      </c>
+      <c r="H16">
+        <v>311</v>
+      </c>
+      <c r="I16">
+        <v>294</v>
+      </c>
+      <c r="J16">
+        <v>272</v>
+      </c>
+      <c r="K16">
+        <v>250</v>
+      </c>
+      <c r="L16">
+        <v>228</v>
+      </c>
+      <c r="M16">
+        <v>217</v>
+      </c>
+      <c r="N16">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>150</v>
+      </c>
+      <c r="D17">
+        <v>157</v>
+      </c>
+      <c r="E17">
+        <v>174</v>
+      </c>
+      <c r="F17">
+        <v>194</v>
+      </c>
+      <c r="G17">
+        <v>361</v>
+      </c>
+      <c r="H17">
+        <v>389</v>
+      </c>
+      <c r="I17">
+        <v>368</v>
+      </c>
+      <c r="J17">
+        <v>340</v>
+      </c>
+      <c r="K17">
+        <v>208</v>
+      </c>
+      <c r="L17">
+        <v>190</v>
+      </c>
+      <c r="M17">
+        <v>181</v>
+      </c>
+      <c r="N17">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18">
+        <v>150</v>
+      </c>
+      <c r="D18">
+        <v>157</v>
+      </c>
+      <c r="E18">
+        <v>174</v>
+      </c>
+      <c r="F18">
+        <v>194</v>
+      </c>
+      <c r="G18">
+        <v>289</v>
+      </c>
+      <c r="H18">
+        <v>311</v>
+      </c>
+      <c r="I18">
+        <v>294</v>
+      </c>
+      <c r="J18">
+        <v>272</v>
+      </c>
+      <c r="K18">
+        <v>208</v>
+      </c>
+      <c r="L18">
+        <v>190</v>
+      </c>
+      <c r="M18">
+        <v>181</v>
+      </c>
+      <c r="N18">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>156</v>
+      </c>
+      <c r="D19">
+        <v>164</v>
+      </c>
+      <c r="E19">
+        <v>139</v>
+      </c>
+      <c r="F19">
+        <v>156</v>
+      </c>
+      <c r="G19">
+        <v>193</v>
+      </c>
+      <c r="H19">
+        <v>207</v>
+      </c>
+      <c r="I19">
+        <v>196</v>
+      </c>
+      <c r="J19">
+        <v>181</v>
+      </c>
+      <c r="K19">
+        <v>167</v>
+      </c>
+      <c r="L19">
+        <v>152</v>
+      </c>
+      <c r="M19">
+        <v>188</v>
+      </c>
+      <c r="N19">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20">
+        <v>120</v>
+      </c>
+      <c r="D20">
+        <v>126</v>
+      </c>
+      <c r="E20">
+        <v>139</v>
+      </c>
+      <c r="F20">
+        <v>156</v>
+      </c>
+      <c r="G20">
+        <v>193</v>
+      </c>
+      <c r="H20">
+        <v>207</v>
+      </c>
+      <c r="I20">
+        <v>196</v>
+      </c>
+      <c r="J20">
+        <v>181</v>
+      </c>
+      <c r="K20">
+        <v>167</v>
+      </c>
+      <c r="L20">
+        <v>152</v>
+      </c>
+      <c r="M20">
+        <v>144</v>
+      </c>
+      <c r="N20">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+      <c r="D21">
+        <v>126</v>
+      </c>
+      <c r="E21">
+        <v>139</v>
+      </c>
+      <c r="F21">
+        <v>156</v>
+      </c>
+      <c r="G21">
+        <v>193</v>
+      </c>
+      <c r="H21">
+        <v>207</v>
+      </c>
+      <c r="I21">
+        <v>196</v>
+      </c>
+      <c r="J21">
+        <v>181</v>
+      </c>
+      <c r="K21">
+        <v>167</v>
+      </c>
+      <c r="L21">
+        <v>152</v>
+      </c>
+      <c r="M21">
+        <v>144</v>
+      </c>
+      <c r="N21">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>117</v>
+      </c>
+      <c r="D22">
+        <v>123</v>
+      </c>
+      <c r="E22">
+        <v>104</v>
+      </c>
+      <c r="F22">
+        <v>117</v>
+      </c>
+      <c r="G22">
+        <v>144</v>
+      </c>
+      <c r="H22">
+        <v>156</v>
+      </c>
+      <c r="I22">
+        <v>147</v>
+      </c>
+      <c r="J22">
+        <v>136</v>
+      </c>
+      <c r="K22">
+        <v>125</v>
+      </c>
+      <c r="L22">
+        <v>114</v>
+      </c>
+      <c r="M22">
+        <v>141</v>
+      </c>
+      <c r="N22">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
+      </c>
+      <c r="D23">
+        <v>94</v>
+      </c>
+      <c r="E23">
+        <v>104</v>
+      </c>
+      <c r="F23">
+        <v>117</v>
+      </c>
+      <c r="G23">
+        <v>144</v>
+      </c>
+      <c r="H23">
+        <v>156</v>
+      </c>
+      <c r="I23">
+        <v>147</v>
+      </c>
+      <c r="J23">
+        <v>136</v>
+      </c>
+      <c r="K23">
+        <v>125</v>
+      </c>
+      <c r="L23">
+        <v>114</v>
+      </c>
+      <c r="M23">
+        <v>108</v>
+      </c>
+      <c r="N23">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
+      </c>
+      <c r="D24">
+        <v>157</v>
+      </c>
+      <c r="E24">
+        <v>174</v>
+      </c>
+      <c r="F24">
+        <v>194</v>
+      </c>
+      <c r="G24">
+        <v>241</v>
+      </c>
+      <c r="H24">
+        <v>259</v>
+      </c>
+      <c r="I24">
+        <v>245</v>
+      </c>
+      <c r="J24">
+        <v>227</v>
+      </c>
+      <c r="K24">
+        <v>208</v>
+      </c>
+      <c r="L24">
+        <v>190</v>
+      </c>
+      <c r="M24">
+        <v>181</v>
+      </c>
+      <c r="N24">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>150</v>
+      </c>
+      <c r="D25">
+        <v>157</v>
+      </c>
+      <c r="E25">
+        <v>174</v>
+      </c>
+      <c r="F25">
+        <v>194</v>
+      </c>
+      <c r="G25">
+        <v>241</v>
+      </c>
+      <c r="H25">
+        <v>259</v>
+      </c>
+      <c r="I25">
+        <v>245</v>
+      </c>
+      <c r="J25">
+        <v>227</v>
+      </c>
+      <c r="K25">
+        <v>208</v>
+      </c>
+      <c r="L25">
+        <v>190</v>
+      </c>
+      <c r="M25">
+        <v>181</v>
+      </c>
+      <c r="N25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>126</v>
+      </c>
+      <c r="E26">
+        <v>139</v>
+      </c>
+      <c r="F26">
+        <v>156</v>
+      </c>
+      <c r="G26">
+        <v>193</v>
+      </c>
+      <c r="H26">
+        <v>207</v>
+      </c>
+      <c r="I26">
+        <v>196</v>
+      </c>
+      <c r="J26">
+        <v>181</v>
+      </c>
+      <c r="K26">
+        <v>167</v>
+      </c>
+      <c r="L26">
+        <v>152</v>
+      </c>
+      <c r="M26">
+        <v>144</v>
+      </c>
+      <c r="N26">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>94</v>
+      </c>
+      <c r="E27">
+        <v>104</v>
+      </c>
+      <c r="F27">
+        <v>117</v>
+      </c>
+      <c r="G27">
+        <v>241</v>
+      </c>
+      <c r="H27">
+        <v>259</v>
+      </c>
+      <c r="I27">
+        <v>245</v>
+      </c>
+      <c r="J27">
+        <v>227</v>
+      </c>
+      <c r="K27">
+        <v>125</v>
+      </c>
+      <c r="L27">
+        <v>114</v>
+      </c>
+      <c r="M27">
+        <v>108</v>
+      </c>
+      <c r="N27">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28">
+        <v>78</v>
+      </c>
+      <c r="D28">
+        <v>82</v>
+      </c>
+      <c r="E28">
+        <v>69</v>
+      </c>
+      <c r="F28">
+        <v>78</v>
+      </c>
+      <c r="G28">
+        <v>96</v>
+      </c>
+      <c r="H28">
+        <v>104</v>
+      </c>
+      <c r="I28">
+        <v>98</v>
+      </c>
+      <c r="J28">
+        <v>91</v>
+      </c>
+      <c r="K28">
+        <v>83</v>
+      </c>
+      <c r="L28">
+        <v>76</v>
+      </c>
+      <c r="M28">
+        <v>94</v>
+      </c>
+      <c r="N28">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <v>63</v>
+      </c>
+      <c r="E29">
+        <v>69</v>
+      </c>
+      <c r="F29">
+        <v>78</v>
+      </c>
+      <c r="G29">
+        <v>96</v>
+      </c>
+      <c r="H29">
+        <v>104</v>
+      </c>
+      <c r="I29">
+        <v>98</v>
+      </c>
+      <c r="J29">
+        <v>91</v>
+      </c>
+      <c r="K29">
+        <v>83</v>
+      </c>
+      <c r="L29">
+        <v>76</v>
+      </c>
+      <c r="M29">
+        <v>72</v>
+      </c>
+      <c r="N29">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>63</v>
+      </c>
+      <c r="E30">
+        <v>69</v>
+      </c>
+      <c r="F30">
+        <v>78</v>
+      </c>
+      <c r="G30">
+        <v>96</v>
+      </c>
+      <c r="H30">
+        <v>104</v>
+      </c>
+      <c r="I30">
+        <v>98</v>
+      </c>
+      <c r="J30">
+        <v>91</v>
+      </c>
+      <c r="K30">
+        <v>83</v>
+      </c>
+      <c r="L30">
+        <v>76</v>
+      </c>
+      <c r="M30">
+        <v>72</v>
+      </c>
+      <c r="N30">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31">
+        <v>78</v>
+      </c>
+      <c r="D31">
+        <v>82</v>
+      </c>
+      <c r="E31">
+        <v>69</v>
+      </c>
+      <c r="F31">
+        <v>78</v>
+      </c>
+      <c r="G31">
+        <v>96</v>
+      </c>
+      <c r="H31">
+        <v>104</v>
+      </c>
+      <c r="I31">
+        <v>98</v>
+      </c>
+      <c r="J31">
+        <v>91</v>
+      </c>
+      <c r="K31">
+        <v>83</v>
+      </c>
+      <c r="L31">
+        <v>76</v>
+      </c>
+      <c r="M31">
+        <v>94</v>
+      </c>
+      <c r="N31">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
+        <v>90</v>
+      </c>
+      <c r="D32">
+        <v>94</v>
+      </c>
+      <c r="E32">
+        <v>104</v>
+      </c>
+      <c r="F32">
+        <v>117</v>
+      </c>
+      <c r="G32">
+        <v>205</v>
+      </c>
+      <c r="H32">
+        <v>220</v>
+      </c>
+      <c r="I32">
+        <v>208</v>
+      </c>
+      <c r="J32">
+        <v>193</v>
+      </c>
+      <c r="K32">
+        <v>125</v>
+      </c>
+      <c r="L32">
+        <v>114</v>
+      </c>
+      <c r="M32">
+        <v>108</v>
+      </c>
+      <c r="N32">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>63</v>
+      </c>
+      <c r="E33">
+        <v>69</v>
+      </c>
+      <c r="F33">
+        <v>78</v>
+      </c>
+      <c r="G33">
+        <v>137</v>
+      </c>
+      <c r="H33">
+        <v>147</v>
+      </c>
+      <c r="I33">
+        <v>139</v>
+      </c>
+      <c r="J33">
+        <v>128</v>
+      </c>
+      <c r="K33">
+        <v>83</v>
+      </c>
+      <c r="L33">
+        <v>76</v>
+      </c>
+      <c r="M33">
+        <v>72</v>
+      </c>
+      <c r="N33">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
+        <v>78</v>
+      </c>
+      <c r="D34">
+        <v>82</v>
+      </c>
+      <c r="E34">
+        <v>69</v>
+      </c>
+      <c r="F34">
+        <v>78</v>
+      </c>
+      <c r="G34">
+        <v>96</v>
+      </c>
+      <c r="H34">
+        <v>104</v>
+      </c>
+      <c r="I34">
+        <v>98</v>
+      </c>
+      <c r="J34">
+        <v>91</v>
+      </c>
+      <c r="K34">
+        <v>83</v>
+      </c>
+      <c r="L34">
+        <v>76</v>
+      </c>
+      <c r="M34">
+        <v>94</v>
+      </c>
+      <c r="N34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>63</v>
+      </c>
+      <c r="E35">
+        <v>69</v>
+      </c>
+      <c r="F35">
+        <v>78</v>
+      </c>
+      <c r="G35">
+        <v>137</v>
+      </c>
+      <c r="H35">
+        <v>147</v>
+      </c>
+      <c r="I35">
+        <v>139</v>
+      </c>
+      <c r="J35">
+        <v>128</v>
+      </c>
+      <c r="K35">
+        <v>83</v>
+      </c>
+      <c r="L35">
+        <v>76</v>
+      </c>
+      <c r="M35">
+        <v>72</v>
+      </c>
+      <c r="N35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36">
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <v>94</v>
+      </c>
+      <c r="E36">
+        <v>104</v>
+      </c>
+      <c r="F36">
+        <v>117</v>
+      </c>
+      <c r="G36">
+        <v>181</v>
+      </c>
+      <c r="H36">
+        <v>195</v>
+      </c>
+      <c r="I36">
+        <v>184</v>
+      </c>
+      <c r="J36">
+        <v>170</v>
+      </c>
+      <c r="K36">
+        <v>125</v>
+      </c>
+      <c r="L36">
+        <v>114</v>
+      </c>
+      <c r="M36">
+        <v>108</v>
+      </c>
+      <c r="N36">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37">
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <v>63</v>
+      </c>
+      <c r="E37">
+        <v>69</v>
+      </c>
+      <c r="F37">
+        <v>78</v>
+      </c>
+      <c r="G37">
+        <v>121</v>
+      </c>
+      <c r="H37">
+        <v>130</v>
+      </c>
+      <c r="I37">
+        <v>123</v>
+      </c>
+      <c r="J37">
+        <v>114</v>
+      </c>
+      <c r="K37">
+        <v>83</v>
+      </c>
+      <c r="L37">
+        <v>76</v>
+      </c>
+      <c r="M37">
+        <v>72</v>
+      </c>
+      <c r="N37">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>63</v>
+      </c>
+      <c r="E38">
+        <v>69</v>
+      </c>
+      <c r="F38">
+        <v>78</v>
+      </c>
+      <c r="G38">
+        <v>121</v>
+      </c>
+      <c r="H38">
+        <v>130</v>
+      </c>
+      <c r="I38">
+        <v>123</v>
+      </c>
+      <c r="J38">
+        <v>114</v>
+      </c>
+      <c r="K38">
+        <v>83</v>
+      </c>
+      <c r="L38">
+        <v>76</v>
+      </c>
+      <c r="M38">
+        <v>72</v>
+      </c>
+      <c r="N38">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>35</v>
+      </c>
+      <c r="F39">
+        <v>39</v>
+      </c>
+      <c r="G39">
+        <v>48</v>
+      </c>
+      <c r="H39">
+        <v>52</v>
+      </c>
+      <c r="I39">
+        <v>49</v>
+      </c>
+      <c r="J39">
+        <v>45</v>
+      </c>
+      <c r="K39">
+        <v>42</v>
+      </c>
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
+        <v>36</v>
+      </c>
+      <c r="N39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40">
+        <v>60</v>
+      </c>
+      <c r="D40">
+        <v>63</v>
+      </c>
+      <c r="E40">
+        <v>69</v>
+      </c>
+      <c r="F40">
+        <v>78</v>
+      </c>
+      <c r="G40">
+        <v>121</v>
+      </c>
+      <c r="H40">
+        <v>130</v>
+      </c>
+      <c r="I40">
+        <v>123</v>
+      </c>
+      <c r="J40">
+        <v>114</v>
+      </c>
+      <c r="K40">
+        <v>83</v>
+      </c>
+      <c r="L40">
+        <v>76</v>
+      </c>
+      <c r="M40">
+        <v>72</v>
+      </c>
+      <c r="N40">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1579,6 +3145,1473 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D90ED7-B7F5-894A-B0B0-2625A267A499}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>240</v>
+      </c>
+      <c r="D2">
+        <v>252</v>
+      </c>
+      <c r="E2">
+        <v>278</v>
+      </c>
+      <c r="F2">
+        <v>311</v>
+      </c>
+      <c r="G2">
+        <v>482</v>
+      </c>
+      <c r="H2">
+        <v>519</v>
+      </c>
+      <c r="I2">
+        <v>491</v>
+      </c>
+      <c r="J2">
+        <v>454</v>
+      </c>
+      <c r="K2">
+        <v>333</v>
+      </c>
+      <c r="L2">
+        <v>304</v>
+      </c>
+      <c r="M2">
+        <v>289</v>
+      </c>
+      <c r="N2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3">
+        <v>210</v>
+      </c>
+      <c r="D3">
+        <v>220</v>
+      </c>
+      <c r="E3">
+        <v>243</v>
+      </c>
+      <c r="F3">
+        <v>272</v>
+      </c>
+      <c r="G3">
+        <v>422</v>
+      </c>
+      <c r="H3">
+        <v>454</v>
+      </c>
+      <c r="I3">
+        <v>429</v>
+      </c>
+      <c r="J3">
+        <v>397</v>
+      </c>
+      <c r="K3">
+        <v>292</v>
+      </c>
+      <c r="L3">
+        <v>266</v>
+      </c>
+      <c r="M3">
+        <v>253</v>
+      </c>
+      <c r="N3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>126</v>
+      </c>
+      <c r="E4">
+        <v>139</v>
+      </c>
+      <c r="F4">
+        <v>156</v>
+      </c>
+      <c r="G4">
+        <v>289</v>
+      </c>
+      <c r="H4">
+        <v>311</v>
+      </c>
+      <c r="I4">
+        <v>294</v>
+      </c>
+      <c r="J4">
+        <v>272</v>
+      </c>
+      <c r="K4">
+        <v>167</v>
+      </c>
+      <c r="L4">
+        <v>152</v>
+      </c>
+      <c r="M4">
+        <v>144</v>
+      </c>
+      <c r="N4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5">
+        <v>117</v>
+      </c>
+      <c r="D5">
+        <v>123</v>
+      </c>
+      <c r="E5">
+        <v>104</v>
+      </c>
+      <c r="F5">
+        <v>117</v>
+      </c>
+      <c r="G5">
+        <v>144</v>
+      </c>
+      <c r="H5">
+        <v>156</v>
+      </c>
+      <c r="I5">
+        <v>147</v>
+      </c>
+      <c r="J5">
+        <v>136</v>
+      </c>
+      <c r="K5">
+        <v>125</v>
+      </c>
+      <c r="L5">
+        <v>114</v>
+      </c>
+      <c r="M5">
+        <v>141</v>
+      </c>
+      <c r="N5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>94</v>
+      </c>
+      <c r="E6">
+        <v>104</v>
+      </c>
+      <c r="F6">
+        <v>117</v>
+      </c>
+      <c r="G6">
+        <v>144</v>
+      </c>
+      <c r="H6">
+        <v>156</v>
+      </c>
+      <c r="I6">
+        <v>147</v>
+      </c>
+      <c r="J6">
+        <v>136</v>
+      </c>
+      <c r="K6">
+        <v>125</v>
+      </c>
+      <c r="L6">
+        <v>114</v>
+      </c>
+      <c r="M6">
+        <v>108</v>
+      </c>
+      <c r="N6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7">
+        <v>210</v>
+      </c>
+      <c r="D7">
+        <v>220</v>
+      </c>
+      <c r="E7">
+        <v>243</v>
+      </c>
+      <c r="F7">
+        <v>272</v>
+      </c>
+      <c r="G7">
+        <v>337</v>
+      </c>
+      <c r="H7">
+        <v>363</v>
+      </c>
+      <c r="I7">
+        <v>343</v>
+      </c>
+      <c r="J7">
+        <v>318</v>
+      </c>
+      <c r="K7">
+        <v>292</v>
+      </c>
+      <c r="L7">
+        <v>266</v>
+      </c>
+      <c r="M7">
+        <v>253</v>
+      </c>
+      <c r="N7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8">
+        <v>210</v>
+      </c>
+      <c r="D8">
+        <v>220</v>
+      </c>
+      <c r="E8">
+        <v>243</v>
+      </c>
+      <c r="F8">
+        <v>272</v>
+      </c>
+      <c r="G8">
+        <v>371</v>
+      </c>
+      <c r="H8">
+        <v>399</v>
+      </c>
+      <c r="I8">
+        <v>377</v>
+      </c>
+      <c r="J8">
+        <v>349</v>
+      </c>
+      <c r="K8">
+        <v>292</v>
+      </c>
+      <c r="L8">
+        <v>266</v>
+      </c>
+      <c r="M8">
+        <v>253</v>
+      </c>
+      <c r="N8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9">
+        <v>180</v>
+      </c>
+      <c r="D9">
+        <v>189</v>
+      </c>
+      <c r="E9">
+        <v>208</v>
+      </c>
+      <c r="F9">
+        <v>233</v>
+      </c>
+      <c r="G9">
+        <v>289</v>
+      </c>
+      <c r="H9">
+        <v>311</v>
+      </c>
+      <c r="I9">
+        <v>294</v>
+      </c>
+      <c r="J9">
+        <v>272</v>
+      </c>
+      <c r="K9">
+        <v>250</v>
+      </c>
+      <c r="L9">
+        <v>228</v>
+      </c>
+      <c r="M9">
+        <v>217</v>
+      </c>
+      <c r="N9">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>150</v>
+      </c>
+      <c r="D10">
+        <v>157</v>
+      </c>
+      <c r="E10">
+        <v>174</v>
+      </c>
+      <c r="F10">
+        <v>194</v>
+      </c>
+      <c r="G10">
+        <v>361</v>
+      </c>
+      <c r="H10">
+        <v>389</v>
+      </c>
+      <c r="I10">
+        <v>368</v>
+      </c>
+      <c r="J10">
+        <v>340</v>
+      </c>
+      <c r="K10">
+        <v>208</v>
+      </c>
+      <c r="L10">
+        <v>190</v>
+      </c>
+      <c r="M10">
+        <v>181</v>
+      </c>
+      <c r="N10">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11">
+        <v>150</v>
+      </c>
+      <c r="D11">
+        <v>157</v>
+      </c>
+      <c r="E11">
+        <v>174</v>
+      </c>
+      <c r="F11">
+        <v>194</v>
+      </c>
+      <c r="G11">
+        <v>289</v>
+      </c>
+      <c r="H11">
+        <v>311</v>
+      </c>
+      <c r="I11">
+        <v>294</v>
+      </c>
+      <c r="J11">
+        <v>272</v>
+      </c>
+      <c r="K11">
+        <v>208</v>
+      </c>
+      <c r="L11">
+        <v>190</v>
+      </c>
+      <c r="M11">
+        <v>181</v>
+      </c>
+      <c r="N11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>156</v>
+      </c>
+      <c r="D12">
+        <v>164</v>
+      </c>
+      <c r="E12">
+        <v>139</v>
+      </c>
+      <c r="F12">
+        <v>156</v>
+      </c>
+      <c r="G12">
+        <v>193</v>
+      </c>
+      <c r="H12">
+        <v>207</v>
+      </c>
+      <c r="I12">
+        <v>196</v>
+      </c>
+      <c r="J12">
+        <v>181</v>
+      </c>
+      <c r="K12">
+        <v>167</v>
+      </c>
+      <c r="L12">
+        <v>152</v>
+      </c>
+      <c r="M12">
+        <v>188</v>
+      </c>
+      <c r="N12">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>126</v>
+      </c>
+      <c r="E13">
+        <v>139</v>
+      </c>
+      <c r="F13">
+        <v>156</v>
+      </c>
+      <c r="G13">
+        <v>193</v>
+      </c>
+      <c r="H13">
+        <v>207</v>
+      </c>
+      <c r="I13">
+        <v>196</v>
+      </c>
+      <c r="J13">
+        <v>181</v>
+      </c>
+      <c r="K13">
+        <v>167</v>
+      </c>
+      <c r="L13">
+        <v>152</v>
+      </c>
+      <c r="M13">
+        <v>144</v>
+      </c>
+      <c r="N13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>126</v>
+      </c>
+      <c r="E14">
+        <v>139</v>
+      </c>
+      <c r="F14">
+        <v>156</v>
+      </c>
+      <c r="G14">
+        <v>193</v>
+      </c>
+      <c r="H14">
+        <v>207</v>
+      </c>
+      <c r="I14">
+        <v>196</v>
+      </c>
+      <c r="J14">
+        <v>181</v>
+      </c>
+      <c r="K14">
+        <v>167</v>
+      </c>
+      <c r="L14">
+        <v>152</v>
+      </c>
+      <c r="M14">
+        <v>144</v>
+      </c>
+      <c r="N14">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>117</v>
+      </c>
+      <c r="D15">
+        <v>123</v>
+      </c>
+      <c r="E15">
+        <v>104</v>
+      </c>
+      <c r="F15">
+        <v>117</v>
+      </c>
+      <c r="G15">
+        <v>144</v>
+      </c>
+      <c r="H15">
+        <v>156</v>
+      </c>
+      <c r="I15">
+        <v>147</v>
+      </c>
+      <c r="J15">
+        <v>136</v>
+      </c>
+      <c r="K15">
+        <v>125</v>
+      </c>
+      <c r="L15">
+        <v>114</v>
+      </c>
+      <c r="M15">
+        <v>141</v>
+      </c>
+      <c r="N15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>94</v>
+      </c>
+      <c r="E16">
+        <v>104</v>
+      </c>
+      <c r="F16">
+        <v>117</v>
+      </c>
+      <c r="G16">
+        <v>144</v>
+      </c>
+      <c r="H16">
+        <v>156</v>
+      </c>
+      <c r="I16">
+        <v>147</v>
+      </c>
+      <c r="J16">
+        <v>136</v>
+      </c>
+      <c r="K16">
+        <v>125</v>
+      </c>
+      <c r="L16">
+        <v>114</v>
+      </c>
+      <c r="M16">
+        <v>108</v>
+      </c>
+      <c r="N16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>150</v>
+      </c>
+      <c r="D17">
+        <v>157</v>
+      </c>
+      <c r="E17">
+        <v>174</v>
+      </c>
+      <c r="F17">
+        <v>194</v>
+      </c>
+      <c r="G17">
+        <v>241</v>
+      </c>
+      <c r="H17">
+        <v>259</v>
+      </c>
+      <c r="I17">
+        <v>245</v>
+      </c>
+      <c r="J17">
+        <v>227</v>
+      </c>
+      <c r="K17">
+        <v>208</v>
+      </c>
+      <c r="L17">
+        <v>190</v>
+      </c>
+      <c r="M17">
+        <v>181</v>
+      </c>
+      <c r="N17">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>150</v>
+      </c>
+      <c r="D18">
+        <v>157</v>
+      </c>
+      <c r="E18">
+        <v>174</v>
+      </c>
+      <c r="F18">
+        <v>194</v>
+      </c>
+      <c r="G18">
+        <v>241</v>
+      </c>
+      <c r="H18">
+        <v>259</v>
+      </c>
+      <c r="I18">
+        <v>245</v>
+      </c>
+      <c r="J18">
+        <v>227</v>
+      </c>
+      <c r="K18">
+        <v>208</v>
+      </c>
+      <c r="L18">
+        <v>190</v>
+      </c>
+      <c r="M18">
+        <v>181</v>
+      </c>
+      <c r="N18">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19">
+        <v>120</v>
+      </c>
+      <c r="D19">
+        <v>126</v>
+      </c>
+      <c r="E19">
+        <v>139</v>
+      </c>
+      <c r="F19">
+        <v>156</v>
+      </c>
+      <c r="G19">
+        <v>193</v>
+      </c>
+      <c r="H19">
+        <v>207</v>
+      </c>
+      <c r="I19">
+        <v>196</v>
+      </c>
+      <c r="J19">
+        <v>181</v>
+      </c>
+      <c r="K19">
+        <v>167</v>
+      </c>
+      <c r="L19">
+        <v>152</v>
+      </c>
+      <c r="M19">
+        <v>144</v>
+      </c>
+      <c r="N19">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20">
+        <v>90</v>
+      </c>
+      <c r="D20">
+        <v>94</v>
+      </c>
+      <c r="E20">
+        <v>104</v>
+      </c>
+      <c r="F20">
+        <v>117</v>
+      </c>
+      <c r="G20">
+        <v>241</v>
+      </c>
+      <c r="H20">
+        <v>259</v>
+      </c>
+      <c r="I20">
+        <v>245</v>
+      </c>
+      <c r="J20">
+        <v>227</v>
+      </c>
+      <c r="K20">
+        <v>125</v>
+      </c>
+      <c r="L20">
+        <v>114</v>
+      </c>
+      <c r="M20">
+        <v>108</v>
+      </c>
+      <c r="N20">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21">
+        <v>78</v>
+      </c>
+      <c r="D21">
+        <v>82</v>
+      </c>
+      <c r="E21">
+        <v>69</v>
+      </c>
+      <c r="F21">
+        <v>78</v>
+      </c>
+      <c r="G21">
+        <v>96</v>
+      </c>
+      <c r="H21">
+        <v>104</v>
+      </c>
+      <c r="I21">
+        <v>98</v>
+      </c>
+      <c r="J21">
+        <v>91</v>
+      </c>
+      <c r="K21">
+        <v>83</v>
+      </c>
+      <c r="L21">
+        <v>76</v>
+      </c>
+      <c r="M21">
+        <v>94</v>
+      </c>
+      <c r="N21">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>63</v>
+      </c>
+      <c r="E22">
+        <v>69</v>
+      </c>
+      <c r="F22">
+        <v>78</v>
+      </c>
+      <c r="G22">
+        <v>96</v>
+      </c>
+      <c r="H22">
+        <v>104</v>
+      </c>
+      <c r="I22">
+        <v>98</v>
+      </c>
+      <c r="J22">
+        <v>91</v>
+      </c>
+      <c r="K22">
+        <v>83</v>
+      </c>
+      <c r="L22">
+        <v>76</v>
+      </c>
+      <c r="M22">
+        <v>72</v>
+      </c>
+      <c r="N22">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>63</v>
+      </c>
+      <c r="E23">
+        <v>69</v>
+      </c>
+      <c r="F23">
+        <v>78</v>
+      </c>
+      <c r="G23">
+        <v>96</v>
+      </c>
+      <c r="H23">
+        <v>104</v>
+      </c>
+      <c r="I23">
+        <v>98</v>
+      </c>
+      <c r="J23">
+        <v>91</v>
+      </c>
+      <c r="K23">
+        <v>83</v>
+      </c>
+      <c r="L23">
+        <v>76</v>
+      </c>
+      <c r="M23">
+        <v>72</v>
+      </c>
+      <c r="N23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24">
+        <v>78</v>
+      </c>
+      <c r="D24">
+        <v>82</v>
+      </c>
+      <c r="E24">
+        <v>69</v>
+      </c>
+      <c r="F24">
+        <v>78</v>
+      </c>
+      <c r="G24">
+        <v>96</v>
+      </c>
+      <c r="H24">
+        <v>104</v>
+      </c>
+      <c r="I24">
+        <v>98</v>
+      </c>
+      <c r="J24">
+        <v>91</v>
+      </c>
+      <c r="K24">
+        <v>83</v>
+      </c>
+      <c r="L24">
+        <v>76</v>
+      </c>
+      <c r="M24">
+        <v>94</v>
+      </c>
+      <c r="N24">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25">
+        <v>90</v>
+      </c>
+      <c r="D25">
+        <v>94</v>
+      </c>
+      <c r="E25">
+        <v>104</v>
+      </c>
+      <c r="F25">
+        <v>117</v>
+      </c>
+      <c r="G25">
+        <v>205</v>
+      </c>
+      <c r="H25">
+        <v>220</v>
+      </c>
+      <c r="I25">
+        <v>208</v>
+      </c>
+      <c r="J25">
+        <v>193</v>
+      </c>
+      <c r="K25">
+        <v>125</v>
+      </c>
+      <c r="L25">
+        <v>114</v>
+      </c>
+      <c r="M25">
+        <v>108</v>
+      </c>
+      <c r="N25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>63</v>
+      </c>
+      <c r="E26">
+        <v>69</v>
+      </c>
+      <c r="F26">
+        <v>78</v>
+      </c>
+      <c r="G26">
+        <v>137</v>
+      </c>
+      <c r="H26">
+        <v>147</v>
+      </c>
+      <c r="I26">
+        <v>139</v>
+      </c>
+      <c r="J26">
+        <v>128</v>
+      </c>
+      <c r="K26">
+        <v>83</v>
+      </c>
+      <c r="L26">
+        <v>76</v>
+      </c>
+      <c r="M26">
+        <v>72</v>
+      </c>
+      <c r="N26">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>82</v>
+      </c>
+      <c r="E27">
+        <v>69</v>
+      </c>
+      <c r="F27">
+        <v>78</v>
+      </c>
+      <c r="G27">
+        <v>96</v>
+      </c>
+      <c r="H27">
+        <v>104</v>
+      </c>
+      <c r="I27">
+        <v>98</v>
+      </c>
+      <c r="J27">
+        <v>91</v>
+      </c>
+      <c r="K27">
+        <v>83</v>
+      </c>
+      <c r="L27">
+        <v>76</v>
+      </c>
+      <c r="M27">
+        <v>94</v>
+      </c>
+      <c r="N27">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28">
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>63</v>
+      </c>
+      <c r="E28">
+        <v>69</v>
+      </c>
+      <c r="F28">
+        <v>78</v>
+      </c>
+      <c r="G28">
+        <v>137</v>
+      </c>
+      <c r="H28">
+        <v>147</v>
+      </c>
+      <c r="I28">
+        <v>139</v>
+      </c>
+      <c r="J28">
+        <v>128</v>
+      </c>
+      <c r="K28">
+        <v>83</v>
+      </c>
+      <c r="L28">
+        <v>76</v>
+      </c>
+      <c r="M28">
+        <v>72</v>
+      </c>
+      <c r="N28">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29">
+        <v>90</v>
+      </c>
+      <c r="D29">
+        <v>94</v>
+      </c>
+      <c r="E29">
+        <v>104</v>
+      </c>
+      <c r="F29">
+        <v>117</v>
+      </c>
+      <c r="G29">
+        <v>181</v>
+      </c>
+      <c r="H29">
+        <v>195</v>
+      </c>
+      <c r="I29">
+        <v>184</v>
+      </c>
+      <c r="J29">
+        <v>170</v>
+      </c>
+      <c r="K29">
+        <v>125</v>
+      </c>
+      <c r="L29">
+        <v>114</v>
+      </c>
+      <c r="M29">
+        <v>108</v>
+      </c>
+      <c r="N29">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>63</v>
+      </c>
+      <c r="E30">
+        <v>69</v>
+      </c>
+      <c r="F30">
+        <v>78</v>
+      </c>
+      <c r="G30">
+        <v>121</v>
+      </c>
+      <c r="H30">
+        <v>130</v>
+      </c>
+      <c r="I30">
+        <v>123</v>
+      </c>
+      <c r="J30">
+        <v>114</v>
+      </c>
+      <c r="K30">
+        <v>83</v>
+      </c>
+      <c r="L30">
+        <v>76</v>
+      </c>
+      <c r="M30">
+        <v>72</v>
+      </c>
+      <c r="N30">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>63</v>
+      </c>
+      <c r="E31">
+        <v>69</v>
+      </c>
+      <c r="F31">
+        <v>78</v>
+      </c>
+      <c r="G31">
+        <v>121</v>
+      </c>
+      <c r="H31">
+        <v>130</v>
+      </c>
+      <c r="I31">
+        <v>123</v>
+      </c>
+      <c r="J31">
+        <v>114</v>
+      </c>
+      <c r="K31">
+        <v>83</v>
+      </c>
+      <c r="L31">
+        <v>76</v>
+      </c>
+      <c r="M31">
+        <v>72</v>
+      </c>
+      <c r="N31">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>35</v>
+      </c>
+      <c r="F32">
+        <v>39</v>
+      </c>
+      <c r="G32">
+        <v>48</v>
+      </c>
+      <c r="H32">
+        <v>52</v>
+      </c>
+      <c r="I32">
+        <v>49</v>
+      </c>
+      <c r="J32">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>42</v>
+      </c>
+      <c r="L32">
+        <v>38</v>
+      </c>
+      <c r="M32">
+        <v>36</v>
+      </c>
+      <c r="N32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>63</v>
+      </c>
+      <c r="E33">
+        <v>69</v>
+      </c>
+      <c r="F33">
+        <v>78</v>
+      </c>
+      <c r="G33">
+        <v>121</v>
+      </c>
+      <c r="H33">
+        <v>130</v>
+      </c>
+      <c r="I33">
+        <v>123</v>
+      </c>
+      <c r="J33">
+        <v>114</v>
+      </c>
+      <c r="K33">
+        <v>83</v>
+      </c>
+      <c r="L33">
+        <v>76</v>
+      </c>
+      <c r="M33">
+        <v>72</v>
+      </c>
+      <c r="N33">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E446ED1B-C099-6745-AEBA-99E87E7E2756}">
   <dimension ref="A1:M6"/>
   <sheetViews>
@@ -1833,17 +4866,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AF9C2D-7C9E-B744-B3AC-F959DE2B8E1E}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
@@ -1856,8 +4892,14 @@
       <c r="D1" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -1870,8 +4912,14 @@
       <c r="D2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -1884,8 +4932,14 @@
       <c r="D3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -1898,8 +4952,14 @@
       <c r="D4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1912,8 +4972,14 @@
       <c r="D5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1926,8 +4992,14 @@
       <c r="D6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -1940,8 +5012,14 @@
       <c r="D7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -1954,8 +5032,14 @@
       <c r="D8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -1968,8 +5052,14 @@
       <c r="D9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -1982,8 +5072,14 @@
       <c r="D10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -1996,8 +5092,14 @@
       <c r="D11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -2010,8 +5112,14 @@
       <c r="D12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -2024,8 +5132,14 @@
       <c r="D13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -2037,6 +5151,12 @@
       </c>
       <c r="D14" t="s">
         <v>121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
